--- a/src/test/java/day15_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day15_excelOtomasyon/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A969BAC5-1713-4F44-94C0-4368A06E2414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E05985-30F8-154D-A6D1-F205B4C37E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="760" windowWidth="26160" windowHeight="19940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1771,7 +1771,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,6 +1793,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1887,6 +1893,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4862,73 +4869,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>5</v>
       </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
         <v>1</v>
       </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
         <v>5</v>
       </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>1</v>
       </c>
     </row>

--- a/src/test/java/day15_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day15_excelOtomasyon/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E05985-30F8-154D-A6D1-F205B4C37E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B202F3-F191-C54F-A0EC-01C01B7BD4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="760" windowWidth="26160" windowHeight="19940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="760" windowWidth="26160" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,12 +1741,16 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1803,7 +1807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1863,11 +1867,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1893,7 +1977,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2174,15 +2268,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2198,6 +2292,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2212,6 +2309,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="n" s="0">
+        <v>2500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2324,6 +2424,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n" s="0">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2393,6 +2496,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4867,99 +4973,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="13">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="14">
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="E9" s="16"/>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14">
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>4</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13">
         <v>5</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19">
         <v>1</v>
       </c>
     </row>
